--- a/Excel/excel/xls/D道具表.xlsx
+++ b/Excel/excel/xls/D道具表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="14805" windowHeight="8025" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="14805" windowHeight="8025"/>
   </bookViews>
   <sheets>
     <sheet name="道具" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="39">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -30,30 +30,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>道具1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>道具2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>道具3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>加速道具</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>减速道具</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>瞬移道具</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>描述ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -99,19 +75,95 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>瞬移</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>加速</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>能量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>减速</t>
+    <t>磁铁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>传送门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>变速</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保护罩</t>
+  </si>
+  <si>
+    <t>问号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>效果类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数表示不同类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>变身模型名字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>磁铁距离</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>传送门出口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>速度参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保护罩特效ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>积分道具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sphere4</t>
+  </si>
+  <si>
+    <t>Sphere5</t>
+  </si>
+  <si>
+    <t>Sphere6</t>
+  </si>
+  <si>
+    <t>MARK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TRANSFERGATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPEED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PROTECT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ENERGY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAGNET</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -119,7 +171,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -129,6 +181,14 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -155,8 +215,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -458,15 +519,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="3" max="3" width="19.625" customWidth="1"/>
+    <col min="4" max="4" width="13.25" customWidth="1"/>
     <col min="5" max="5" width="14.625" customWidth="1"/>
     <col min="6" max="6" width="11.875" customWidth="1"/>
     <col min="8" max="8" width="20" customWidth="1"/>
@@ -480,56 +542,56 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
       </c>
       <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>11</v>
       </c>
-      <c r="G1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" t="s">
-        <v>17</v>
-      </c>
       <c r="I1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>3</v>
+      <c r="B3" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
         <v>6</v>
-      </c>
-      <c r="E3">
-        <v>4</v>
-      </c>
-      <c r="F3" t="s">
-        <v>12</v>
       </c>
       <c r="G3">
         <v>10000</v>
@@ -546,19 +608,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
         <v>7</v>
-      </c>
-      <c r="E4">
-        <v>5</v>
-      </c>
-      <c r="F4" t="s">
-        <v>13</v>
       </c>
       <c r="G4">
         <v>10000</v>
@@ -575,19 +637,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C5">
         <v>3</v>
       </c>
       <c r="D5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
         <v>8</v>
-      </c>
-      <c r="E5">
-        <v>6</v>
-      </c>
-      <c r="F5" t="s">
-        <v>14</v>
       </c>
       <c r="G5">
         <v>10000</v>
@@ -597,6 +659,93 @@
       </c>
       <c r="I5">
         <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6">
+        <v>14</v>
+      </c>
+      <c r="F6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6">
+        <v>10000</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7">
+        <v>15</v>
+      </c>
+      <c r="F7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7">
+        <v>10000</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8">
+        <v>16</v>
+      </c>
+      <c r="F8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8">
+        <v>10000</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -608,57 +757,107 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="3" max="3" width="28.875" customWidth="1"/>
+    <col min="4" max="4" width="20.625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Excel/excel/xls/D道具表.xlsx
+++ b/Excel/excel/xls/D道具表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="14805" windowHeight="8025"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="14805" windowHeight="8040" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="道具" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="50">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -159,12 +159,53 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ENERGY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MAGNET</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ENERGY_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ENERGY_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ENERGY_0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sphere7</t>
+  </si>
+  <si>
+    <t>Sphere8</t>
+  </si>
+  <si>
+    <t>积分道具_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>积分道具_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>积分道具_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>积分类型1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>积分类型2，死亡掉落的积分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>积分类型3，移动的积分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编号</t>
   </si>
 </sst>
 </file>
@@ -519,10 +560,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:D8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -614,7 +655,7 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E4">
         <v>12</v>
@@ -730,7 +771,7 @@
         <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E8">
         <v>16</v>
@@ -746,6 +787,64 @@
       </c>
       <c r="I8">
         <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9">
+        <v>7</v>
+      </c>
+      <c r="D9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9">
+        <v>17</v>
+      </c>
+      <c r="F9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9">
+        <v>10000</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10">
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10">
+        <v>18</v>
+      </c>
+      <c r="F10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10">
+        <v>10000</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -757,21 +856,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
+    <col min="2" max="2" width="11.5" customWidth="1"/>
     <col min="3" max="3" width="28.875" customWidth="1"/>
-    <col min="4" max="4" width="20.625" customWidth="1"/>
+    <col min="4" max="4" width="36.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="B1" t="s">
         <v>14</v>
@@ -851,7 +951,32 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>43</v>
+      </c>
+      <c r="D8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/excel/xls/D道具表.xlsx
+++ b/Excel/excel/xls/D道具表.xlsx
@@ -98,14 +98,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>参数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参数表示不同类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>参数描述</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -206,6 +198,14 @@
   </si>
   <si>
     <t>编号</t>
+  </si>
+  <si>
+    <t>积分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>体力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -563,7 +563,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -626,7 +626,7 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E3">
         <v>11</v>
@@ -655,7 +655,7 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E4">
         <v>12</v>
@@ -684,7 +684,7 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E5">
         <v>13</v>
@@ -713,13 +713,13 @@
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E6">
         <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G6">
         <v>10000</v>
@@ -742,13 +742,13 @@
         <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E7">
         <v>15</v>
       </c>
       <c r="F7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G7">
         <v>10000</v>
@@ -765,19 +765,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C8">
         <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E8">
         <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G8">
         <v>10000</v>
@@ -794,19 +794,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C9">
         <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E9">
         <v>17</v>
       </c>
       <c r="F9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G9">
         <v>10000</v>
@@ -823,19 +823,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C10">
         <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E10">
         <v>18</v>
       </c>
       <c r="F10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G10">
         <v>10000</v>
@@ -856,127 +856,175 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="11.5" customWidth="1"/>
-    <col min="3" max="3" width="28.875" customWidth="1"/>
-    <col min="4" max="4" width="36.875" customWidth="1"/>
+    <col min="2" max="3" width="11.5" customWidth="1"/>
+    <col min="4" max="4" width="28.875" customWidth="1"/>
+    <col min="5" max="5" width="36.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B1" t="s">
         <v>14</v>
       </c>
       <c r="C1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" t="s">
         <v>21</v>
       </c>
-      <c r="D1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>20</v>
       </c>
-      <c r="C2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
       </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>16</v>
       </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>17</v>
       </c>
-      <c r="D6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>18</v>
       </c>
-      <c r="D7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+        <v>41</v>
+      </c>
+      <c r="C8">
+        <v>20</v>
+      </c>
+      <c r="D8">
+        <v>10</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+        <v>42</v>
+      </c>
+      <c r="C9">
+        <v>60</v>
+      </c>
+      <c r="D9">
+        <v>10</v>
+      </c>
+      <c r="E9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>45</v>
-      </c>
-      <c r="D10" t="s">
-        <v>48</v>
+        <v>43</v>
+      </c>
+      <c r="C10">
+        <v>100</v>
+      </c>
+      <c r="D10">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/excel/xls/D道具表.xlsx
+++ b/Excel/excel/xls/D道具表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="14805" windowHeight="8040" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="14805" windowHeight="8055"/>
   </bookViews>
   <sheets>
     <sheet name="道具" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="57">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -205,6 +205,34 @@
   </si>
   <si>
     <t>体力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>问号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吸铁石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>传送门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>变速</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保护罩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>积分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>效果类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -562,8 +590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -856,20 +884,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="3" width="11.5" customWidth="1"/>
-    <col min="4" max="4" width="28.875" customWidth="1"/>
-    <col min="5" max="5" width="36.875" customWidth="1"/>
+    <col min="2" max="4" width="11.5" customWidth="1"/>
+    <col min="5" max="5" width="28.875" customWidth="1"/>
+    <col min="6" max="6" width="36.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>47</v>
       </c>
@@ -877,153 +905,180 @@
         <v>14</v>
       </c>
       <c r="C1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" t="s">
         <v>48</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>49</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="1">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="C3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
       </c>
-      <c r="C4">
-        <v>0</v>
+      <c r="C4" t="s">
+        <v>51</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>16</v>
       </c>
-      <c r="C5">
-        <v>0</v>
+      <c r="C5" t="s">
+        <v>52</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>17</v>
       </c>
-      <c r="C6">
-        <v>0</v>
+      <c r="C6" t="s">
+        <v>53</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>18</v>
       </c>
-      <c r="C7">
-        <v>0</v>
+      <c r="C7" t="s">
+        <v>54</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>41</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8">
         <v>20</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>10</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9" t="s">
         <v>42</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9">
         <v>60</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>10</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10" t="s">
         <v>43</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10">
         <v>100</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>10</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>46</v>
       </c>
     </row>

--- a/Excel/excel/xls/D道具表.xlsx
+++ b/Excel/excel/xls/D道具表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="60" windowWidth="14805" windowHeight="8055"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="56">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -83,10 +83,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>变速</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>保护罩</t>
   </si>
   <si>
@@ -122,10 +118,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>积分道具</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Sphere4</t>
   </si>
   <si>
@@ -173,18 +165,6 @@
     <t>Sphere8</t>
   </si>
   <si>
-    <t>积分道具_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>积分道具_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>积分道具_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>积分类型1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -220,10 +200,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>变速</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>保护罩</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -233,6 +209,26 @@
   </si>
   <si>
     <t>效果类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通能量点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>稀有能量点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掉落能量点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>持续时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加速</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -297,12 +293,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -344,7 +343,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -379,7 +378,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -588,10 +587,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="B8" sqref="B8:B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -603,7 +602,7 @@
     <col min="8" max="8" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -631,8 +630,11 @@
       <c r="I1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C2" t="s">
         <v>4</v>
       </c>
@@ -643,18 +645,18 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E3">
         <v>11</v>
@@ -671,8 +673,11 @@
       <c r="I3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>2</v>
       </c>
@@ -683,7 +688,7 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E4">
         <v>12</v>
@@ -700,8 +705,11 @@
       <c r="I4">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>3</v>
       </c>
@@ -712,7 +720,7 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E5">
         <v>13</v>
@@ -729,25 +737,28 @@
       <c r="I5">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="C6">
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E6">
         <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G6">
         <v>10000</v>
@@ -758,25 +769,28 @@
       <c r="I6">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C7">
         <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E7">
         <v>15</v>
       </c>
       <c r="F7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G7">
         <v>10000</v>
@@ -787,25 +801,28 @@
       <c r="I7">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="C8">
         <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E8">
         <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G8">
         <v>10000</v>
@@ -817,24 +834,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="C9">
         <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E9">
         <v>17</v>
       </c>
       <c r="F9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G9">
         <v>10000</v>
@@ -846,24 +863,24 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="C10">
         <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E10">
         <v>18</v>
       </c>
       <c r="F10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G10">
         <v>10000</v>
@@ -887,7 +904,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -899,27 +916,27 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B1" t="s">
         <v>14</v>
       </c>
       <c r="C1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
@@ -927,10 +944,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D3" s="1">
         <v>0</v>
@@ -939,7 +956,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
@@ -950,7 +967,7 @@
         <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -959,7 +976,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
@@ -970,7 +987,7 @@
         <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -979,7 +996,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
@@ -987,10 +1004,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="C6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -999,7 +1016,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
@@ -1007,10 +1024,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1019,7 +1036,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
@@ -1027,10 +1044,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="C8" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D8">
         <v>20</v>
@@ -1039,7 +1056,7 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
@@ -1047,10 +1064,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="C9" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D9">
         <v>60</v>
@@ -1059,7 +1076,7 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
@@ -1067,10 +1084,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="C10" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D10">
         <v>100</v>
@@ -1079,7 +1096,7 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/excel/xls/D道具表.xlsx
+++ b/Excel/excel/xls/D道具表.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="14805" windowHeight="8055"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="14805" windowHeight="8055" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="道具" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="59">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -83,6 +83,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>变速</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>保护罩</t>
   </si>
   <si>
@@ -114,121 +118,129 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>积分道具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sphere4</t>
+  </si>
+  <si>
+    <t>Sphere5</t>
+  </si>
+  <si>
+    <t>Sphere6</t>
+  </si>
+  <si>
+    <t>MARK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TRANSFERGATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPEED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PROTECT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAGNET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ENERGY_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ENERGY_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ENERGY_0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sphere7</t>
+  </si>
+  <si>
+    <t>Sphere8</t>
+  </si>
+  <si>
+    <t>积分道具_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>积分道具_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>积分道具_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编号</t>
+  </si>
+  <si>
+    <t>问号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吸铁石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>传送门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>变速</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保护罩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>积分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>效果类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>持续时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用秒表示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>积分类型1（积分+体力）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>积分类型2，死亡掉落的积分（积分+体力）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>积分类型3，移动的积分（积分+体力）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>保护罩特效ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sphere4</t>
-  </si>
-  <si>
-    <t>Sphere5</t>
-  </si>
-  <si>
-    <t>Sphere6</t>
-  </si>
-  <si>
-    <t>MARK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TRANSFERGATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SPEED</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PROTECT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MAGNET</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ENERGY_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ENERGY_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ENERGY_0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sphere7</t>
-  </si>
-  <si>
-    <t>Sphere8</t>
-  </si>
-  <si>
-    <t>积分类型1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>积分类型2，死亡掉落的积分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>积分类型3，移动的积分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>编号</t>
-  </si>
-  <si>
-    <t>积分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>体力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>问号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吸铁石</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>传送门</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>保护罩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>积分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>效果类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>普通能量点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>稀有能量点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>掉落能量点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>持续时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>加速</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -293,15 +305,12 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -343,7 +352,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -378,7 +387,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -589,8 +598,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -631,7 +640,7 @@
         <v>13</v>
       </c>
       <c r="J1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
@@ -644,19 +653,22 @@
       <c r="H2" t="s">
         <v>12</v>
       </c>
+      <c r="J2" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E3">
         <v>11</v>
@@ -674,7 +686,7 @@
         <v>1</v>
       </c>
       <c r="J3">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
@@ -688,7 +700,7 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E4">
         <v>12</v>
@@ -706,7 +718,7 @@
         <v>2</v>
       </c>
       <c r="J4">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
@@ -720,7 +732,7 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E5">
         <v>13</v>
@@ -738,7 +750,7 @@
         <v>3</v>
       </c>
       <c r="J5">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
@@ -746,19 +758,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="C6">
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E6">
         <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G6">
         <v>10000</v>
@@ -778,19 +790,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C7">
         <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E7">
         <v>15</v>
       </c>
       <c r="F7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G7">
         <v>10000</v>
@@ -810,19 +822,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="C8">
         <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E8">
         <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G8">
         <v>10000</v>
@@ -832,6 +844,9 @@
       </c>
       <c r="I8">
         <v>6</v>
+      </c>
+      <c r="J8">
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
@@ -839,19 +854,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="C9">
         <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E9">
         <v>17</v>
       </c>
       <c r="F9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G9">
         <v>10000</v>
@@ -861,6 +876,9 @@
       </c>
       <c r="I9">
         <v>7</v>
+      </c>
+      <c r="J9">
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
@@ -868,19 +886,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="C10">
         <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E10">
         <v>18</v>
       </c>
       <c r="F10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G10">
         <v>10000</v>
@@ -890,6 +908,9 @@
       </c>
       <c r="I10">
         <v>8</v>
+      </c>
+      <c r="J10">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -903,20 +924,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="4" width="11.5" customWidth="1"/>
-    <col min="5" max="5" width="28.875" customWidth="1"/>
+    <col min="2" max="3" width="11.5" customWidth="1"/>
+    <col min="4" max="4" width="14.875" customWidth="1"/>
+    <col min="5" max="5" width="18.5" customWidth="1"/>
     <col min="6" max="6" width="36.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B1" t="s">
         <v>14</v>
@@ -925,18 +947,18 @@
         <v>50</v>
       </c>
       <c r="D1" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="E1" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="F1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
@@ -944,10 +966,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D3" s="1">
         <v>0</v>
@@ -956,7 +978,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
@@ -967,16 +989,16 @@
         <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
@@ -987,7 +1009,7 @@
         <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -996,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
@@ -1004,19 +1026,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
@@ -1024,7 +1046,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
         <v>48</v>
@@ -1036,7 +1058,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
@@ -1044,7 +1066,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="C8" t="s">
         <v>49</v>
@@ -1056,7 +1078,7 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
@@ -1064,7 +1086,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="C9" t="s">
         <v>49</v>
@@ -1076,7 +1098,7 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
@@ -1084,7 +1106,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="C10" t="s">
         <v>49</v>
@@ -1096,7 +1118,7 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/excel/xls/D道具表.xlsx
+++ b/Excel/excel/xls/D道具表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="60" windowWidth="14805" windowHeight="8055" activeTab="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="58">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -118,10 +118,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>积分道具</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Sphere4</t>
   </si>
   <si>
@@ -169,18 +165,6 @@
     <t>Sphere8</t>
   </si>
   <si>
-    <t>积分道具_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>积分道具_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>积分道具_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>编号</t>
   </si>
   <si>
@@ -241,6 +225,18 @@
   </si>
   <si>
     <t>保护罩特效ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通能量点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>稀有能量点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掉落能量点</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -305,12 +301,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -352,7 +351,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -387,7 +386,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -599,7 +598,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="B9" sqref="B9:B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -640,7 +639,7 @@
         <v>13</v>
       </c>
       <c r="J1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
@@ -654,7 +653,7 @@
         <v>12</v>
       </c>
       <c r="J2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
@@ -668,7 +667,7 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E3">
         <v>11</v>
@@ -686,7 +685,7 @@
         <v>1</v>
       </c>
       <c r="J3">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
@@ -700,7 +699,7 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E4">
         <v>12</v>
@@ -718,7 +717,7 @@
         <v>2</v>
       </c>
       <c r="J4">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
@@ -732,7 +731,7 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E5">
         <v>13</v>
@@ -750,7 +749,7 @@
         <v>3</v>
       </c>
       <c r="J5">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
@@ -764,13 +763,13 @@
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E6">
         <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G6">
         <v>10000</v>
@@ -782,7 +781,7 @@
         <v>4</v>
       </c>
       <c r="J6">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
@@ -796,13 +795,13 @@
         <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E7">
         <v>15</v>
       </c>
       <c r="F7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G7">
         <v>10000</v>
@@ -814,7 +813,7 @@
         <v>5</v>
       </c>
       <c r="J7">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
@@ -822,19 +821,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="C8">
         <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E8">
         <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G8">
         <v>10000</v>
@@ -846,7 +845,7 @@
         <v>6</v>
       </c>
       <c r="J8">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
@@ -854,19 +853,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="C9">
         <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E9">
         <v>17</v>
       </c>
       <c r="F9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G9">
         <v>10000</v>
@@ -878,7 +877,7 @@
         <v>7</v>
       </c>
       <c r="J9">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
@@ -886,19 +885,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="C10">
         <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E10">
         <v>18</v>
       </c>
       <c r="F10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G10">
         <v>10000</v>
@@ -910,7 +909,7 @@
         <v>8</v>
       </c>
       <c r="J10">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -925,7 +924,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -938,19 +937,19 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B1" t="s">
         <v>14</v>
       </c>
       <c r="C1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" t="s">
         <v>50</v>
-      </c>
-      <c r="D1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E1" t="s">
-        <v>54</v>
       </c>
       <c r="F1" t="s">
         <v>21</v>
@@ -969,7 +968,7 @@
         <v>19</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D3" s="1">
         <v>0</v>
@@ -989,10 +988,10 @@
         <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D4">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1009,7 +1008,7 @@
         <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -1029,7 +1028,7 @@
         <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D6">
         <v>15000</v>
@@ -1049,7 +1048,7 @@
         <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1058,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
@@ -1066,10 +1065,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D8">
         <v>20</v>
@@ -1078,7 +1077,7 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
@@ -1086,10 +1085,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="C9" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D9">
         <v>60</v>
@@ -1098,7 +1097,7 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
@@ -1106,10 +1105,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="C10" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D10">
         <v>100</v>
@@ -1118,7 +1117,7 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/excel/xls/D道具表.xlsx
+++ b/Excel/excel/xls/D道具表.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="14805" windowHeight="8055" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="14805" windowHeight="8055"/>
   </bookViews>
   <sheets>
     <sheet name="道具" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="59">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -216,10 +216,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>积分类型2，死亡掉落的积分（积分+体力）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>积分类型3，移动的积分（积分+体力）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -237,6 +233,14 @@
   </si>
   <si>
     <t>掉落能量点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>稀有能量点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>积分类型2（糖果），死亡掉落的积分（积分+体力）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -309,7 +313,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -351,7 +355,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -386,7 +390,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -597,8 +601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -821,7 +825,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C8">
         <v>6</v>
@@ -853,7 +857,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C9">
         <v>7</v>
@@ -885,7 +889,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C10">
         <v>8</v>
@@ -923,8 +927,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1057,7 +1061,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
@@ -1065,7 +1069,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C8" t="s">
         <v>45</v>
@@ -1085,7 +1089,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C9" t="s">
         <v>45</v>
@@ -1097,7 +1101,7 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
@@ -1105,7 +1109,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C10" t="s">
         <v>45</v>
@@ -1117,7 +1121,7 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
